--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.8982142183864</v>
+        <v>1111.658713465907</v>
       </c>
       <c r="AB2" t="n">
-        <v>1320.216304998488</v>
+        <v>1521.020494685217</v>
       </c>
       <c r="AC2" t="n">
-        <v>1194.216713784653</v>
+        <v>1375.856433438131</v>
       </c>
       <c r="AD2" t="n">
-        <v>964898.2142183864</v>
+        <v>1111658.713465907</v>
       </c>
       <c r="AE2" t="n">
-        <v>1320216.304998488</v>
+        <v>1521020.494685217</v>
       </c>
       <c r="AF2" t="n">
         <v>5.187699594090445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.25416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1194216.713784653</v>
+        <v>1375856.433438131</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.5614813932675</v>
+        <v>457.8023317483498</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.3327639130208</v>
+        <v>626.3853471115503</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.7683738132734</v>
+        <v>566.6040087205794</v>
       </c>
       <c r="AD3" t="n">
-        <v>379561.4813932675</v>
+        <v>457802.3317483498</v>
       </c>
       <c r="AE3" t="n">
-        <v>519332.7639130208</v>
+        <v>626385.3471115504</v>
       </c>
       <c r="AF3" t="n">
         <v>9.631447206019357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>469768.3738132734</v>
+        <v>566604.0087205793</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.7513457473685</v>
+        <v>375.2036748321026</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.71072416582</v>
+        <v>513.3702207231781</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.6541217191344</v>
+        <v>464.3748873769873</v>
       </c>
       <c r="AD4" t="n">
-        <v>306751.3457473685</v>
+        <v>375203.6748321026</v>
       </c>
       <c r="AE4" t="n">
-        <v>419710.7241658199</v>
+        <v>513370.2207231781</v>
       </c>
       <c r="AF4" t="n">
         <v>1.120448187817458e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.00833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>379654.1217191344</v>
+        <v>464374.8873769873</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.3761343766676</v>
+        <v>330.8616178503252</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.9946022722685</v>
+        <v>452.6994621272203</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.7326612834912</v>
+        <v>409.4944608294832</v>
       </c>
       <c r="AD5" t="n">
-        <v>262376.1343766676</v>
+        <v>330861.6178503252</v>
       </c>
       <c r="AE5" t="n">
-        <v>358994.6022722685</v>
+        <v>452699.4621272204</v>
       </c>
       <c r="AF5" t="n">
         <v>1.209345741128912e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>324732.6612834912</v>
+        <v>409494.4608294832</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>249.5633151045636</v>
+        <v>308.3286081454376</v>
       </c>
       <c r="AB6" t="n">
-        <v>341.4635376823226</v>
+        <v>421.868804162764</v>
       </c>
       <c r="AC6" t="n">
-        <v>308.8747368931086</v>
+        <v>381.6062375900544</v>
       </c>
       <c r="AD6" t="n">
-        <v>249563.3151045636</v>
+        <v>308328.6081454376</v>
       </c>
       <c r="AE6" t="n">
-        <v>341463.5376823226</v>
+        <v>421868.804162764</v>
       </c>
       <c r="AF6" t="n">
         <v>1.252024100409368e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5375</v>
       </c>
       <c r="AH6" t="n">
-        <v>308874.7368931086</v>
+        <v>381606.2375900544</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>244.1737650848668</v>
+        <v>302.8375728992556</v>
       </c>
       <c r="AB7" t="n">
-        <v>334.0893175752112</v>
+        <v>414.3557274915596</v>
       </c>
       <c r="AC7" t="n">
-        <v>302.2043020032346</v>
+        <v>374.8101984116804</v>
       </c>
       <c r="AD7" t="n">
-        <v>244173.7650848668</v>
+        <v>302837.5728992556</v>
       </c>
       <c r="AE7" t="n">
-        <v>334089.3175752112</v>
+        <v>414355.7274915596</v>
       </c>
       <c r="AF7" t="n">
         <v>1.272289729087997e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.3375</v>
       </c>
       <c r="AH7" t="n">
-        <v>302204.3020032346</v>
+        <v>374810.1984116804</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>621.692733508778</v>
+        <v>737.8593233100753</v>
       </c>
       <c r="AB2" t="n">
-        <v>850.6274251344023</v>
+        <v>1009.571678208781</v>
       </c>
       <c r="AC2" t="n">
-        <v>769.4447375426637</v>
+        <v>913.2195741832843</v>
       </c>
       <c r="AD2" t="n">
-        <v>621692.733508778</v>
+        <v>737859.3233100753</v>
       </c>
       <c r="AE2" t="n">
-        <v>850627.4251344024</v>
+        <v>1009571.678208781</v>
       </c>
       <c r="AF2" t="n">
         <v>7.235920331731661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>769444.7375426637</v>
+        <v>913219.5741832843</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.5233437288917</v>
+        <v>384.9335715109758</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.7670058622872</v>
+        <v>526.6830946119588</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.6095933729914</v>
+        <v>476.4171992665586</v>
       </c>
       <c r="AD3" t="n">
-        <v>307523.3437288917</v>
+        <v>384933.5715109758</v>
       </c>
       <c r="AE3" t="n">
-        <v>420767.0058622872</v>
+        <v>526683.0946119588</v>
       </c>
       <c r="AF3" t="n">
         <v>1.154548874074204e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>380609.5933729914</v>
+        <v>476417.1992665586</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.7309670683053</v>
+        <v>316.7811075800303</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.0071235475352</v>
+        <v>433.433886787131</v>
       </c>
       <c r="AC4" t="n">
-        <v>320.221180528276</v>
+        <v>392.0675649604472</v>
       </c>
       <c r="AD4" t="n">
-        <v>258730.9670683053</v>
+        <v>316781.1075800303</v>
       </c>
       <c r="AE4" t="n">
-        <v>354007.1235475352</v>
+        <v>433433.886787131</v>
       </c>
       <c r="AF4" t="n">
         <v>1.312777959022472e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>320221.180528276</v>
+        <v>392067.5649604472</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.5722832090353</v>
+        <v>291.5882583019825</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.5839023683343</v>
+        <v>398.9639189748366</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.0832632652194</v>
+        <v>360.8873624972545</v>
       </c>
       <c r="AD5" t="n">
-        <v>233572.2832090353</v>
+        <v>291588.2583019825</v>
       </c>
       <c r="AE5" t="n">
-        <v>319583.9023683344</v>
+        <v>398963.9189748366</v>
       </c>
       <c r="AF5" t="n">
         <v>1.378888782741414e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.45416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>289083.2632652194</v>
+        <v>360887.3624972545</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.7988477486014</v>
+        <v>291.8148228415486</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.8938979666906</v>
+        <v>399.273914573193</v>
       </c>
       <c r="AC6" t="n">
-        <v>289.3636733187501</v>
+        <v>361.1677725507853</v>
       </c>
       <c r="AD6" t="n">
-        <v>233798.8477486014</v>
+        <v>291814.8228415485</v>
       </c>
       <c r="AE6" t="n">
-        <v>319893.8979666906</v>
+        <v>399273.914573193</v>
       </c>
       <c r="AF6" t="n">
         <v>1.380413783039171e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>289363.6733187501</v>
+        <v>361167.7725507853</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.4126355787392</v>
+        <v>325.2223240777737</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.6256154244639</v>
+        <v>444.9835315995327</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.9259075665267</v>
+        <v>402.5149278819816</v>
       </c>
       <c r="AD2" t="n">
-        <v>250412.6355787392</v>
+        <v>325222.3240777737</v>
       </c>
       <c r="AE2" t="n">
-        <v>342625.6154244639</v>
+        <v>444983.5315995327</v>
       </c>
       <c r="AF2" t="n">
         <v>1.617943160260512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>309925.9075665267</v>
+        <v>402514.9278819816</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4012278081248</v>
+        <v>285.8895999862133</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.562683302863</v>
+        <v>391.1667632601397</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.7819640544112</v>
+        <v>353.8343563805915</v>
       </c>
       <c r="AD3" t="n">
-        <v>220401.2278081249</v>
+        <v>285889.5999862133</v>
       </c>
       <c r="AE3" t="n">
-        <v>301562.683302863</v>
+        <v>391166.7632601397</v>
       </c>
       <c r="AF3" t="n">
         <v>1.774594391429243e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.50833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>272781.9640544112</v>
+        <v>353834.3563805915</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.7821684788103</v>
+        <v>435.0238144086351</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.5873942128962</v>
+        <v>595.2187747700913</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.9116850108431</v>
+        <v>538.4119303008301</v>
       </c>
       <c r="AD2" t="n">
-        <v>349782.1684788103</v>
+        <v>435023.8144086351</v>
       </c>
       <c r="AE2" t="n">
-        <v>478587.3942128962</v>
+        <v>595218.7747700913</v>
       </c>
       <c r="AF2" t="n">
         <v>1.195679869276082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>432911.6850108431</v>
+        <v>538411.9303008302</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.0059735465073</v>
+        <v>285.8682399284598</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.3360760367021</v>
+        <v>391.1375374867822</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.4317207097969</v>
+        <v>353.8079198740246</v>
       </c>
       <c r="AD3" t="n">
-        <v>229005.9735465073</v>
+        <v>285868.2399284598</v>
       </c>
       <c r="AE3" t="n">
-        <v>313336.0760367021</v>
+        <v>391137.5374867822</v>
       </c>
       <c r="AF3" t="n">
         <v>1.5951365856034e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>283431.7207097969</v>
+        <v>353807.9198740246</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.7921735906166</v>
+        <v>284.1359990711907</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.9928602191215</v>
+        <v>388.7674091247935</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.5528398755026</v>
+        <v>351.663993236408</v>
       </c>
       <c r="AD4" t="n">
-        <v>217792.1735906166</v>
+        <v>284135.9990711907</v>
       </c>
       <c r="AE4" t="n">
-        <v>297992.8602191215</v>
+        <v>388767.4091247935</v>
       </c>
       <c r="AF4" t="n">
         <v>1.610032763974798e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>269552.8398755026</v>
+        <v>351663.993236408</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.1186973742562</v>
+        <v>290.8100799047947</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.3855774001952</v>
+        <v>397.8991809609964</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8582521185972</v>
+        <v>359.924241585086</v>
       </c>
       <c r="AD2" t="n">
-        <v>226118.6973742562</v>
+        <v>290810.0799047947</v>
       </c>
       <c r="AE2" t="n">
-        <v>309385.5774001952</v>
+        <v>397899.1809609964</v>
       </c>
       <c r="AF2" t="n">
         <v>1.907164243180545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279858.2521185972</v>
+        <v>359924.241585086</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.0805233846868</v>
+        <v>290.7719059152254</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.3333460635489</v>
+        <v>397.84694962435</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.8110056674133</v>
+        <v>359.8769951339021</v>
       </c>
       <c r="AD3" t="n">
-        <v>226080.5233846868</v>
+        <v>290771.9059152254</v>
       </c>
       <c r="AE3" t="n">
-        <v>309333.3460635489</v>
+        <v>397846.94962435</v>
       </c>
       <c r="AF3" t="n">
         <v>1.915730141177141e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>279811.0056674133</v>
+        <v>359876.9951339021</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>694.8061827889774</v>
+        <v>820.9207706472403</v>
       </c>
       <c r="AB2" t="n">
-        <v>950.6644719773063</v>
+        <v>1123.220014867926</v>
       </c>
       <c r="AC2" t="n">
-        <v>859.9343890377579</v>
+        <v>1016.021473098122</v>
       </c>
       <c r="AD2" t="n">
-        <v>694806.1827889774</v>
+        <v>820920.7706472402</v>
       </c>
       <c r="AE2" t="n">
-        <v>950664.4719773063</v>
+        <v>1123220.014867926</v>
       </c>
       <c r="AF2" t="n">
         <v>6.671381824719395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.12083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>859934.3890377579</v>
+        <v>1016021.473098122</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.8167070340612</v>
+        <v>407.38665139819</v>
       </c>
       <c r="AB3" t="n">
-        <v>451.269769050196</v>
+        <v>557.4043890736197</v>
       </c>
       <c r="AC3" t="n">
-        <v>408.2012156531433</v>
+        <v>504.2064965024061</v>
       </c>
       <c r="AD3" t="n">
-        <v>329816.7070340611</v>
+        <v>407386.65139819</v>
       </c>
       <c r="AE3" t="n">
-        <v>451269.769050196</v>
+        <v>557404.3890736196</v>
       </c>
       <c r="AF3" t="n">
         <v>1.101318967411023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>408201.2156531433</v>
+        <v>504206.4965024061</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.570209004148</v>
+        <v>336.4312246694502</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.4696084408738</v>
+        <v>460.3200438908583</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.3988247581107</v>
+        <v>416.3877449651533</v>
       </c>
       <c r="AD4" t="n">
-        <v>268570.209004148</v>
+        <v>336431.2246694502</v>
       </c>
       <c r="AE4" t="n">
-        <v>367469.6084408738</v>
+        <v>460320.0438908583</v>
       </c>
       <c r="AF4" t="n">
         <v>1.257897549696142e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.32083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>332398.8247581107</v>
+        <v>416387.7449651533</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.9932366498215</v>
+        <v>295.1794890350806</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.2646017878299</v>
+        <v>403.8775992977796</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.3172433015227</v>
+        <v>365.3320880665696</v>
       </c>
       <c r="AD5" t="n">
-        <v>236993.2366498215</v>
+        <v>295179.4890350806</v>
       </c>
       <c r="AE5" t="n">
-        <v>324264.6017878299</v>
+        <v>403877.5992977796</v>
       </c>
       <c r="AF5" t="n">
         <v>1.348031791386599e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.43333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>293317.2433015227</v>
+        <v>365332.0880665695</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.4001400057363</v>
+        <v>291.5863923909954</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.3483684431586</v>
+        <v>398.9613659531058</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.8702083672885</v>
+        <v>360.8850531323346</v>
       </c>
       <c r="AD6" t="n">
-        <v>233400.1400057363</v>
+        <v>291586.3923909954</v>
       </c>
       <c r="AE6" t="n">
-        <v>319348.3684431586</v>
+        <v>398961.3659531059</v>
       </c>
       <c r="AF6" t="n">
         <v>1.366493021612356e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.2625</v>
       </c>
       <c r="AH6" t="n">
-        <v>288870.2083672885</v>
+        <v>360885.0531323346</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.7845275658846</v>
+        <v>298.0780017188633</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.8743044609355</v>
+        <v>407.843472225086</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.3459497896847</v>
+        <v>368.9194636478313</v>
       </c>
       <c r="AD2" t="n">
-        <v>233784.5275658845</v>
+        <v>298078.0017188633</v>
       </c>
       <c r="AE2" t="n">
-        <v>319874.3044609355</v>
+        <v>407843.4722250859</v>
       </c>
       <c r="AF2" t="n">
         <v>1.990610781496231e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>289345.9497896847</v>
+        <v>368919.4636478313</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.866547268408</v>
+        <v>563.6836652966342</v>
       </c>
       <c r="AB2" t="n">
-        <v>640.1556507879466</v>
+        <v>771.2568588270753</v>
       </c>
       <c r="AC2" t="n">
-        <v>579.0600939408429</v>
+        <v>697.6491866864185</v>
       </c>
       <c r="AD2" t="n">
-        <v>467866.547268408</v>
+        <v>563683.6652966342</v>
       </c>
       <c r="AE2" t="n">
-        <v>640155.6507879465</v>
+        <v>771256.8588270753</v>
       </c>
       <c r="AF2" t="n">
         <v>9.240364600515838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>579060.0939408429</v>
+        <v>697649.1866864185</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.9130877399712</v>
+        <v>338.552307171154</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.3610414357647</v>
+        <v>463.2222025452453</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.1595666040151</v>
+        <v>419.0129256707708</v>
       </c>
       <c r="AD3" t="n">
-        <v>261913.0877399712</v>
+        <v>338552.307171154</v>
       </c>
       <c r="AE3" t="n">
-        <v>358361.0414357646</v>
+        <v>463222.2025452453</v>
       </c>
       <c r="AF3" t="n">
         <v>1.346122762348888e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.87083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>324159.5666040151</v>
+        <v>419012.9256707708</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.9414369794039</v>
+        <v>293.0263780457772</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.1430419077817</v>
+        <v>400.9316178536619</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.6388638731789</v>
+        <v>362.6672669567674</v>
       </c>
       <c r="AD4" t="n">
-        <v>225941.4369794039</v>
+        <v>293026.3780457772</v>
       </c>
       <c r="AE4" t="n">
-        <v>309143.0419077817</v>
+        <v>400931.6178536619</v>
       </c>
       <c r="AF4" t="n">
         <v>1.477750227824274e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6375</v>
       </c>
       <c r="AH4" t="n">
-        <v>279638.8638731789</v>
+        <v>362667.2669567674</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.6066289254079</v>
+        <v>292.6915699917813</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.6849427576158</v>
+        <v>400.4735187034958</v>
       </c>
       <c r="AC5" t="n">
-        <v>279.2244850629584</v>
+        <v>362.2528881465469</v>
       </c>
       <c r="AD5" t="n">
-        <v>225606.6289254079</v>
+        <v>292691.5699917813</v>
       </c>
       <c r="AE5" t="n">
-        <v>308684.9427576158</v>
+        <v>400473.5187034957</v>
       </c>
       <c r="AF5" t="n">
         <v>1.482321559618107e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>279224.4850629584</v>
+        <v>362252.8881465469</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.3077314321491</v>
+        <v>680.9851659880425</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.4789777624283</v>
+        <v>931.7539470500391</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.6592297093448</v>
+        <v>842.8286580684606</v>
       </c>
       <c r="AD2" t="n">
-        <v>565307.7314321491</v>
+        <v>680985.1659880425</v>
       </c>
       <c r="AE2" t="n">
-        <v>773478.9777624282</v>
+        <v>931753.9470500391</v>
       </c>
       <c r="AF2" t="n">
         <v>7.844721201055068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>699659.2297093448</v>
+        <v>842828.6580684606</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.5615609945195</v>
+        <v>372.7361190431783</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.4003670085094</v>
+        <v>509.9940020318934</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.8049635606963</v>
+        <v>461.3208902590462</v>
       </c>
       <c r="AD3" t="n">
-        <v>295561.5609945196</v>
+        <v>372736.1190431783</v>
       </c>
       <c r="AE3" t="n">
-        <v>404400.3670085093</v>
+        <v>509994.0020318935</v>
       </c>
       <c r="AF3" t="n">
         <v>1.211819906845467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>365804.9635606962</v>
+        <v>461320.8902590462</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.4337096267152</v>
+        <v>307.957177241947</v>
       </c>
       <c r="AB4" t="n">
-        <v>328.972008697769</v>
+        <v>421.3605960142332</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.5753819028657</v>
+        <v>381.1465321139447</v>
       </c>
       <c r="AD4" t="n">
-        <v>240433.7096267152</v>
+        <v>307957.177241947</v>
       </c>
       <c r="AE4" t="n">
-        <v>328972.008697769</v>
+        <v>421360.5960142332</v>
       </c>
       <c r="AF4" t="n">
         <v>1.367284479827981e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>297575.3819028657</v>
+        <v>381146.5321139447</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.1255809595237</v>
+        <v>289.0662889788871</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.2362164096692</v>
+        <v>395.5132492855435</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.0550757559415</v>
+        <v>357.7660198800621</v>
       </c>
       <c r="AD5" t="n">
-        <v>231125.5809595237</v>
+        <v>289066.2889788871</v>
       </c>
       <c r="AE5" t="n">
-        <v>316236.2164096692</v>
+        <v>395513.2492855435</v>
       </c>
       <c r="AF5" t="n">
         <v>1.408614789434489e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5125</v>
       </c>
       <c r="AH5" t="n">
-        <v>286055.0757559414</v>
+        <v>357766.0198800621</v>
       </c>
     </row>
   </sheetData>
@@ -7663,28 +7663,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>859.0714796610054</v>
+        <v>995.6838495280975</v>
       </c>
       <c r="AB2" t="n">
-        <v>1175.419498031054</v>
+        <v>1362.33856939561</v>
       </c>
       <c r="AC2" t="n">
-        <v>1063.239110850596</v>
+        <v>1232.318888386683</v>
       </c>
       <c r="AD2" t="n">
-        <v>859071.4796610053</v>
+        <v>995683.8495280975</v>
       </c>
       <c r="AE2" t="n">
-        <v>1175419.498031054</v>
+        <v>1362338.56939561</v>
       </c>
       <c r="AF2" t="n">
         <v>5.651484405740774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1063239.110850596</v>
+        <v>1232318.888386683</v>
       </c>
     </row>
     <row r="3">
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.2984984723176</v>
+        <v>443.0956824256967</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.1350802733162</v>
+        <v>606.263060696719</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.7390305069006</v>
+        <v>548.4021650793732</v>
       </c>
       <c r="AD3" t="n">
-        <v>355298.4984723176</v>
+        <v>443095.6824256967</v>
       </c>
       <c r="AE3" t="n">
-        <v>486135.0802733162</v>
+        <v>606263.060696719</v>
       </c>
       <c r="AF3" t="n">
         <v>1.007276340770061e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>439739.0305069006</v>
+        <v>548402.1650793732</v>
       </c>
     </row>
     <row r="4">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.9606938110824</v>
+        <v>356.3005386484808</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.0005252015367</v>
+        <v>487.5061158492353</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.3976680595114</v>
+        <v>440.9792163717145</v>
       </c>
       <c r="AD4" t="n">
-        <v>287960.6938110824</v>
+        <v>356300.5386484808</v>
       </c>
       <c r="AE4" t="n">
-        <v>394000.5252015367</v>
+        <v>487506.1158492353</v>
       </c>
       <c r="AF4" t="n">
         <v>1.160446335245193e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>356397.6680595114</v>
+        <v>440979.2163717145</v>
       </c>
     </row>
     <row r="5">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.4994211877816</v>
+        <v>322.8051006064023</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.2173357910092</v>
+        <v>441.6761798056291</v>
       </c>
       <c r="AC5" t="n">
-        <v>314.9839619893196</v>
+        <v>399.5232251013907</v>
       </c>
       <c r="AD5" t="n">
-        <v>254499.4211877816</v>
+        <v>322805.1006064023</v>
       </c>
       <c r="AE5" t="n">
-        <v>348217.3357910092</v>
+        <v>441676.1798056291</v>
       </c>
       <c r="AF5" t="n">
         <v>1.250279402554736e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.81666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>314983.9619893196</v>
+        <v>399523.2251013907</v>
       </c>
     </row>
     <row r="6">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>242.8903750432094</v>
+        <v>301.4000650961351</v>
       </c>
       <c r="AB6" t="n">
-        <v>332.3333267010437</v>
+        <v>412.3888658969618</v>
       </c>
       <c r="AC6" t="n">
-        <v>300.6159004335485</v>
+        <v>373.0310513271635</v>
       </c>
       <c r="AD6" t="n">
-        <v>242890.3750432094</v>
+        <v>301400.0650961351</v>
       </c>
       <c r="AE6" t="n">
-        <v>332333.3267010438</v>
+        <v>412388.8658969618</v>
       </c>
       <c r="AF6" t="n">
         <v>1.290042840738841e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.42083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>300615.9004335485</v>
+        <v>373031.0513271635</v>
       </c>
     </row>
     <row r="7">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.0563319501353</v>
+        <v>300.5660220030611</v>
       </c>
       <c r="AB7" t="n">
-        <v>331.192152145716</v>
+        <v>411.2476913416336</v>
       </c>
       <c r="AC7" t="n">
-        <v>299.5836379761323</v>
+        <v>371.9987888697472</v>
       </c>
       <c r="AD7" t="n">
-        <v>242056.3319501353</v>
+        <v>300566.0220030611</v>
       </c>
       <c r="AE7" t="n">
-        <v>331192.152145716</v>
+        <v>411247.6913416336</v>
       </c>
       <c r="AF7" t="n">
         <v>1.294349905609846e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.37916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>299583.6379761323</v>
+        <v>371998.7888697472</v>
       </c>
     </row>
   </sheetData>
@@ -8490,28 +8490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.3553315111809</v>
+        <v>471.965689606331</v>
       </c>
       <c r="AB2" t="n">
-        <v>528.6284093678637</v>
+        <v>645.7642781760898</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.1768559124264</v>
+        <v>584.1334418028196</v>
       </c>
       <c r="AD2" t="n">
-        <v>386355.3315111808</v>
+        <v>471965.689606331</v>
       </c>
       <c r="AE2" t="n">
-        <v>528628.4093678637</v>
+        <v>645764.2781760897</v>
       </c>
       <c r="AF2" t="n">
         <v>1.094205640809483e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>478176.8559124264</v>
+        <v>584133.4418028196</v>
       </c>
     </row>
     <row r="3">
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.6870530734487</v>
+        <v>294.7723506197644</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.2139120276565</v>
+        <v>403.3205345562649</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.1759527044258</v>
+        <v>364.8281888021396</v>
       </c>
       <c r="AD3" t="n">
-        <v>237687.0530734487</v>
+        <v>294772.3506197644</v>
       </c>
       <c r="AE3" t="n">
-        <v>325213.9120276565</v>
+        <v>403320.5345562649</v>
       </c>
       <c r="AF3" t="n">
         <v>1.516709772970979e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>294175.9527044258</v>
+        <v>364828.1888021396</v>
       </c>
     </row>
     <row r="4">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.2292914287093</v>
+        <v>286.8333199343737</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.3274323632491</v>
+        <v>392.4580025271985</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.5691651342971</v>
+        <v>355.0023615842679</v>
       </c>
       <c r="AD4" t="n">
-        <v>220229.2914287093</v>
+        <v>286833.3199343737</v>
       </c>
       <c r="AE4" t="n">
-        <v>301327.4323632491</v>
+        <v>392458.0025271985</v>
       </c>
       <c r="AF4" t="n">
         <v>1.563596081975171e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>272569.1651342971</v>
+        <v>355002.3615842679</v>
       </c>
     </row>
   </sheetData>
@@ -8999,28 +8999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.3242220233851</v>
+        <v>357.5316889725596</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.2884558380237</v>
+        <v>489.1906300371589</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.4216277720948</v>
+        <v>442.5029628897731</v>
       </c>
       <c r="AD2" t="n">
-        <v>282324.2220233851</v>
+        <v>357531.6889725596</v>
       </c>
       <c r="AE2" t="n">
-        <v>386288.4558380237</v>
+        <v>489190.630037159</v>
       </c>
       <c r="AF2" t="n">
         <v>1.450843423194414e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>349421.6277720948</v>
+        <v>442502.9628897731</v>
       </c>
     </row>
     <row r="3">
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.7113680210323</v>
+        <v>288.4164163750776</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.7235190583547</v>
+        <v>394.6240649186553</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.6411340816605</v>
+        <v>356.9616980211717</v>
       </c>
       <c r="AD3" t="n">
-        <v>222711.3680210323</v>
+        <v>288416.4163750776</v>
       </c>
       <c r="AE3" t="n">
-        <v>304723.5190583547</v>
+        <v>394624.0649186553</v>
       </c>
       <c r="AF3" t="n">
         <v>1.712120617534854e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>275641.1340816605</v>
+        <v>356961.6980211717</v>
       </c>
     </row>
     <row r="4">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.878644841481</v>
+        <v>288.5836931955263</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.952394583825</v>
+        <v>394.8529404441257</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.8481660482088</v>
+        <v>357.16872998772</v>
       </c>
       <c r="AD4" t="n">
-        <v>222878.644841481</v>
+        <v>288583.6931955263</v>
       </c>
       <c r="AE4" t="n">
-        <v>304952.394583825</v>
+        <v>394852.9404441257</v>
       </c>
       <c r="AF4" t="n">
         <v>1.716372572710851e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>275848.1660482088</v>
+        <v>357168.72998772</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.0106287062882</v>
+        <v>297.0850808221528</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.4471777823425</v>
+        <v>406.4849140496282</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.1504646748022</v>
+        <v>367.6905643578909</v>
       </c>
       <c r="AD2" t="n">
-        <v>232010.6287062882</v>
+        <v>297085.0808221528</v>
       </c>
       <c r="AE2" t="n">
-        <v>317447.1777823425</v>
+        <v>406484.9140496282</v>
       </c>
       <c r="AF2" t="n">
         <v>1.798937435805637e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.17916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>287150.4646748022</v>
+        <v>367690.5643578909</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.5231371478785</v>
+        <v>283.6649090714473</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.9929968060029</v>
+        <v>388.1228430041206</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.4575248302329</v>
+        <v>351.080943601638</v>
       </c>
       <c r="AD3" t="n">
-        <v>218523.1371478785</v>
+        <v>283664.9090714473</v>
       </c>
       <c r="AE3" t="n">
-        <v>298992.9968060029</v>
+        <v>388122.8430041206</v>
       </c>
       <c r="AF3" t="n">
         <v>1.840934069495025e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.85833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>270457.5248302329</v>
+        <v>351080.943601638</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.6978775621272</v>
+        <v>316.5722813719374</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.4381872719235</v>
+        <v>433.1481615564562</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.6153146622254</v>
+        <v>391.8091089447702</v>
       </c>
       <c r="AD2" t="n">
-        <v>243697.8775621273</v>
+        <v>316572.2813719374</v>
       </c>
       <c r="AE2" t="n">
-        <v>333438.1872719235</v>
+        <v>433148.1615564562</v>
       </c>
       <c r="AF2" t="n">
         <v>2.054495386986697e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>301615.3146622254</v>
+        <v>391809.1089447702</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.0566146735163</v>
+        <v>619.7799165614202</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.3549387735715</v>
+        <v>848.0102245994993</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.2277305818777</v>
+        <v>767.0773189535477</v>
       </c>
       <c r="AD2" t="n">
-        <v>514056.6146735163</v>
+        <v>619779.9165614202</v>
       </c>
       <c r="AE2" t="n">
-        <v>703354.9387735715</v>
+        <v>848010.2245994994</v>
       </c>
       <c r="AF2" t="n">
         <v>8.514122308226433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>636227.7305818778</v>
+        <v>767077.3189535476</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.9300357764568</v>
+        <v>350.2057623142727</v>
       </c>
       <c r="AB3" t="n">
-        <v>387.1173569415929</v>
+        <v>479.1669739862168</v>
       </c>
       <c r="AC3" t="n">
-        <v>350.1714197177093</v>
+        <v>433.4359505040433</v>
       </c>
       <c r="AD3" t="n">
-        <v>282930.0357764568</v>
+        <v>350205.7623142727</v>
       </c>
       <c r="AE3" t="n">
-        <v>387117.3569415929</v>
+        <v>479166.9739862168</v>
       </c>
       <c r="AF3" t="n">
         <v>1.27807528242882e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.17916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>350171.4197177093</v>
+        <v>433435.9505040433</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.9841114716478</v>
+        <v>298.2929923983902</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.042651615164</v>
+        <v>408.137631957534</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.8799845137539</v>
+        <v>369.1855491882703</v>
       </c>
       <c r="AD4" t="n">
-        <v>230984.1114716478</v>
+        <v>298292.9923983902</v>
       </c>
       <c r="AE4" t="n">
-        <v>316042.651615164</v>
+        <v>408137.631957534</v>
       </c>
       <c r="AF4" t="n">
         <v>1.430184640311051e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.67083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>285879.9845137539</v>
+        <v>369185.5491882703</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.0417328221976</v>
+        <v>285.7985093942843</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.0167593384036</v>
+        <v>391.0421290936292</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.2383177455109</v>
+        <v>353.7216171240076</v>
       </c>
       <c r="AD5" t="n">
-        <v>228041.7328221975</v>
+        <v>285798.5093942843</v>
       </c>
       <c r="AE5" t="n">
-        <v>312016.7593384036</v>
+        <v>391042.1290936292</v>
       </c>
       <c r="AF5" t="n">
         <v>1.445713104927567e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5375</v>
       </c>
       <c r="AH5" t="n">
-        <v>282238.317745511</v>
+        <v>353721.6171240076</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>765.7985505392023</v>
+        <v>902.0729882218602</v>
       </c>
       <c r="AB2" t="n">
-        <v>1047.799361495386</v>
+        <v>1234.256059136684</v>
       </c>
       <c r="AC2" t="n">
-        <v>947.798861029906</v>
+        <v>1116.460393141936</v>
       </c>
       <c r="AD2" t="n">
-        <v>765798.5505392023</v>
+        <v>902072.9882218603</v>
       </c>
       <c r="AE2" t="n">
-        <v>1047799.361495386</v>
+        <v>1234256.059136684</v>
       </c>
       <c r="AF2" t="n">
         <v>6.150263892135742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.62916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>947798.861029906</v>
+        <v>1116460.393141937</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.8876829985423</v>
+        <v>420.7783133422217</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.1540550155608</v>
+        <v>575.7274517438724</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.3786504667267</v>
+        <v>520.78083178799</v>
       </c>
       <c r="AD3" t="n">
-        <v>342887.6829985423</v>
+        <v>420778.3133422217</v>
       </c>
       <c r="AE3" t="n">
-        <v>469154.0550155608</v>
+        <v>575727.4517438724</v>
       </c>
       <c r="AF3" t="n">
         <v>1.05145615824652e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>424378.6504667267</v>
+        <v>520780.8317879899</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.7180246653888</v>
+        <v>345.8723262161083</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.9860534017277</v>
+        <v>473.2377755390003</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.7207177788415</v>
+        <v>428.0726264349468</v>
       </c>
       <c r="AD4" t="n">
-        <v>277718.0246653889</v>
+        <v>345872.3262161083</v>
       </c>
       <c r="AE4" t="n">
-        <v>379986.0534017277</v>
+        <v>473237.7755390003</v>
       </c>
       <c r="AF4" t="n">
         <v>1.209261050417564e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>343720.7177788415</v>
+        <v>428072.6264349468</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.1903292957859</v>
+        <v>313.3104654277276</v>
       </c>
       <c r="AB5" t="n">
-        <v>335.4802255762379</v>
+        <v>428.6852010804249</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.4624636967954</v>
+        <v>387.7720871527669</v>
       </c>
       <c r="AD5" t="n">
-        <v>245190.3292957859</v>
+        <v>313310.4654277277</v>
       </c>
       <c r="AE5" t="n">
-        <v>335480.2255762379</v>
+        <v>428685.2010804249</v>
       </c>
       <c r="AF5" t="n">
         <v>1.299306133347542e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>303462.4636967954</v>
+        <v>387772.0871527669</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.9862661047485</v>
+        <v>297.3369190548066</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.9915526143137</v>
+        <v>406.8294902298638</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.7839377684272</v>
+        <v>368.0022546711005</v>
       </c>
       <c r="AD6" t="n">
-        <v>238986.2661047485</v>
+        <v>297336.9190548066</v>
       </c>
       <c r="AE6" t="n">
-        <v>326991.5526143137</v>
+        <v>406829.4902298638</v>
       </c>
       <c r="AF6" t="n">
         <v>1.321552103202788e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.39166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>295783.9377684272</v>
+        <v>368002.2546711005</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.5197152909457</v>
+        <v>297.8703682410037</v>
       </c>
       <c r="AB7" t="n">
-        <v>327.7214413249855</v>
+        <v>407.559378940536</v>
       </c>
       <c r="AC7" t="n">
-        <v>296.444166924958</v>
+        <v>368.6624838276313</v>
       </c>
       <c r="AD7" t="n">
-        <v>239519.7152909457</v>
+        <v>297870.3682410038</v>
       </c>
       <c r="AE7" t="n">
-        <v>327721.4413249855</v>
+        <v>407559.378940536</v>
       </c>
       <c r="AF7" t="n">
         <v>1.321552103202788e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.39166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>296444.1669249581</v>
+        <v>368662.4838276313</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.5966954678483</v>
+        <v>365.7919038187346</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.0835572072136</v>
+        <v>500.4926204046555</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.0952317474529</v>
+        <v>452.726307159039</v>
       </c>
       <c r="AD2" t="n">
-        <v>275596.6954678483</v>
+        <v>365791.9038187346</v>
       </c>
       <c r="AE2" t="n">
-        <v>377083.5572072136</v>
+        <v>500492.6204046555</v>
       </c>
       <c r="AF2" t="n">
         <v>2.065877231139057e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341095.2317474529</v>
+        <v>452726.307159039</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.3980637823611</v>
+        <v>400.351869108211</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.5415452475738</v>
+        <v>547.7790895917793</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.3558258415073</v>
+        <v>495.49982209392</v>
       </c>
       <c r="AD2" t="n">
-        <v>315398.0637823611</v>
+        <v>400351.869108211</v>
       </c>
       <c r="AE2" t="n">
-        <v>431541.5452475738</v>
+        <v>547779.0895917793</v>
       </c>
       <c r="AF2" t="n">
         <v>1.312361138224553e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.50416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>390355.8258415074</v>
+        <v>495499.82209392</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.1044793425056</v>
+        <v>281.7299721166719</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.9978795450131</v>
+        <v>385.4753768992032</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.6029941990671</v>
+        <v>348.6861479460318</v>
       </c>
       <c r="AD3" t="n">
-        <v>225104.4793425056</v>
+        <v>281729.972116672</v>
       </c>
       <c r="AE3" t="n">
-        <v>307997.8795450131</v>
+        <v>385475.3768992032</v>
       </c>
       <c r="AF3" t="n">
         <v>1.656280226020388e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>278602.9941990671</v>
+        <v>348686.1479460318</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.1074740667138</v>
+        <v>281.7329668408801</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.0019770587926</v>
+        <v>385.4794744129827</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.6067006518824</v>
+        <v>348.6898543988471</v>
       </c>
       <c r="AD4" t="n">
-        <v>225107.4740667138</v>
+        <v>281732.9668408801</v>
       </c>
       <c r="AE4" t="n">
-        <v>308001.9770587926</v>
+        <v>385479.4744129826</v>
       </c>
       <c r="AF4" t="n">
         <v>1.66080274123173e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>278606.7006518824</v>
+        <v>348689.8543988471</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.7609501545341</v>
+        <v>521.2089444192708</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.5449152489003</v>
+        <v>713.1410718702316</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.947646144468</v>
+        <v>645.0798888707167</v>
       </c>
       <c r="AD2" t="n">
-        <v>425760.9501545341</v>
+        <v>521208.9444192707</v>
       </c>
       <c r="AE2" t="n">
-        <v>582544.9152489003</v>
+        <v>713141.0718702317</v>
       </c>
       <c r="AF2" t="n">
         <v>1.003885077506327e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>526947.646144468</v>
+        <v>645079.8888707167</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.9356768266753</v>
+        <v>316.8203124705337</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.9730194179553</v>
+        <v>433.4875286479154</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.3355944069547</v>
+        <v>392.1160873173253</v>
       </c>
       <c r="AD3" t="n">
-        <v>249935.6768266753</v>
+        <v>316820.3124705337</v>
       </c>
       <c r="AE3" t="n">
-        <v>341973.0194179553</v>
+        <v>433487.5286479155</v>
       </c>
       <c r="AF3" t="n">
         <v>1.425657524308137e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.52916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>309335.5944069547</v>
+        <v>392116.0873173252</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.202466134086</v>
+        <v>290.0529363591633</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.395461162354</v>
+        <v>396.8632237590476</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.248946974331</v>
+        <v>358.9871546845162</v>
       </c>
       <c r="AD4" t="n">
-        <v>223202.466134086</v>
+        <v>290052.9363591633</v>
       </c>
       <c r="AE4" t="n">
-        <v>305395.461162354</v>
+        <v>396863.2237590476</v>
       </c>
       <c r="AF4" t="n">
         <v>1.518001250314459e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>276248.946974331</v>
+        <v>358987.1546845161</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.7573650347693</v>
+        <v>290.6078352598465</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.1546983186803</v>
+        <v>397.6224609153742</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.9357236020538</v>
+        <v>359.673931312239</v>
       </c>
       <c r="AD5" t="n">
-        <v>223757.3650347693</v>
+        <v>290607.8352598465</v>
       </c>
       <c r="AE5" t="n">
-        <v>306154.6983186803</v>
+        <v>397622.4609153742</v>
       </c>
       <c r="AF5" t="n">
         <v>1.518001250314459e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.70416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>276935.7236020538</v>
+        <v>359673.931312239</v>
       </c>
     </row>
   </sheetData>
